--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-53405.13298937252</v>
+        <v>-59640.45048852755</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25841374.97493689</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4244883.115682472</v>
+        <v>4244883.115682473</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>44.16642452857919</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>211.8322023925302</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8768572327043</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>40.06399496612754</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.58216279976261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>332.9207406456938</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.26988917406528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>84.9605629009267</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>66.97782568592982</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>9.464195197477034</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>378.7606637428541</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>51.65657670477888</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>49.82657368386893</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>97.12023777220243</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>373.5073547669986</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>56.41800393046368</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1578,25 +1578,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>125.4289004454252</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.6837167196853</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>276.3999628334956</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V15" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W15" t="n">
         <v>183.4695267241379</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>71.03021676555073</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>56.8561876420682</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>46.68188763447793</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>60.15722453289879</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>150.1874491796151</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>5.64492333244486</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>114.6874234957162</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>129.4972427124794</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,13 +2298,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>62.85674741097884</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>290.9044362257064</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>347.3637975681711</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>23.27708121189633</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.9214256320455</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2563,10 +2563,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
-        <v>140.1660476454504</v>
+        <v>374.4268935289278</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.4765812016408</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>156.2681271316377</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>399.0554100416494</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>260.3836328115955</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04548853606598328</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>123.8150572874498</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3091,13 +3091,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>19.35726169821097</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>205.471124600043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3167,7 +3167,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V33" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W33" t="n">
         <v>183.4695267241379</v>
@@ -3198,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3207,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>209.5867542297959</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>143.5905533984611</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>178.121633985026</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>305.5961147094268</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>93.41827306551629</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>175.2226096871348</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>250.0484779675876</v>
       </c>
       <c r="C38" t="n">
-        <v>185.6197914577337</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>69.14588903914873</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>93.41827306551629</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>373.5073547669986</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>43.61917530317518</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>14.69964881608727</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>231.9214256320455</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>211.3893666249918</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>225.5637196568042</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4188,10 +4188,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>156.0665348042639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.5867542297959</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D2" t="n">
         <v>33.94366860160834</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1652.570880051549</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1289.953929985376</v>
       </c>
       <c r="W2" t="n">
-        <v>861.3722557226442</v>
+        <v>1289.953929985376</v>
       </c>
       <c r="X2" t="n">
-        <v>442.2297923019549</v>
+        <v>870.8114665646866</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.603617826933</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C4" t="n">
-        <v>122.603617826933</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D4" t="n">
-        <v>122.603617826933</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,13 +4494,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4518,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="Y4" t="n">
-        <v>122.603617826933</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>461.8110981924006</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C5" t="n">
-        <v>461.8110981924006</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8110981924006</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G5" t="n">
         <v>33.94366860160834</v>
@@ -4567,7 +4567,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
         <v>453.9965675465116</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="Y5" t="n">
-        <v>461.8110981924006</v>
+        <v>435.3414999783445</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4652,22 +4652,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>455.1116977300199</v>
+        <v>692.8726122155155</v>
       </c>
       <c r="C7" t="n">
-        <v>455.1116977300199</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="D7" t="n">
-        <v>455.1116977300199</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E7" t="n">
-        <v>285.3536939807572</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F7" t="n">
-        <v>285.3536939807572</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G7" t="n">
-        <v>119.7624190065848</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4725,22 +4725,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4755,22 +4755,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1629.52906070069</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1629.52906070069</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>1629.52906070069</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>1357.502656286982</v>
       </c>
       <c r="X7" t="n">
-        <v>646.930316449007</v>
+        <v>1112.110901620394</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.930316449007</v>
+        <v>884.6912309345025</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>873.1855120707613</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C8" t="n">
-        <v>873.1855120707613</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D8" t="n">
-        <v>873.1855120707613</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="E8" t="n">
-        <v>863.6257189419966</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7582893512044</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y8" t="n">
-        <v>873.1855120707613</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="9">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.8290829477096</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C10" t="n">
-        <v>262.8290829477096</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D10" t="n">
-        <v>262.8290829477096</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E10" t="n">
-        <v>262.8290829477096</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
-        <v>86.1220289094658</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
         <v>33.94366860160834</v>
@@ -4962,52 +4962,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>91.74450617142992</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>509.954387939391</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W10" t="n">
-        <v>454.6477016666967</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X10" t="n">
-        <v>454.6477016666967</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="Y10" t="n">
-        <v>454.6477016666967</v>
+        <v>542.1413766661235</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1278.040966659728</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.040966659728</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.040966659728</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E11" t="n">
-        <v>849.4592923969963</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F11" t="n">
-        <v>421.591862806204</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G11" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H11" t="n">
         <v>34.36045797446834</v>
@@ -5071,22 +5071,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>813.0384456815061</v>
       </c>
       <c r="X11" t="n">
-        <v>1278.040966659728</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1278.040966659728</v>
+        <v>435.7582893512044</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5108,10 +5108,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5126,10 +5126,10 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
         <v>1159.957753041174</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>433.2298803720686</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C13" t="n">
-        <v>433.2298803720686</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D13" t="n">
-        <v>433.2298803720686</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E13" t="n">
         <v>376.2419976140245</v>
@@ -5199,22 +5199,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M13" t="n">
-        <v>453.9965675465116</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N13" t="n">
-        <v>874.0494664914149</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O13" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
         <v>1528.990655216085</v>
@@ -5226,25 +5226,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U13" t="n">
-        <v>992.2117929153466</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V13" t="n">
-        <v>705.2562847857771</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W13" t="n">
-        <v>433.2298803720686</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="X13" t="n">
-        <v>433.2298803720686</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y13" t="n">
-        <v>433.2298803720686</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C14" t="n">
-        <v>1278.040966659728</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.040966659728</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E14" t="n">
-        <v>863.2089295691367</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F14" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5278,22 +5278,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M14" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N14" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y14" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5345,10 +5345,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5360,19 +5360,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L15" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M15" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N15" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O15" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1413766661235</v>
+        <v>376.2633838676462</v>
       </c>
       <c r="C16" t="n">
-        <v>369.5796651493484</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="D16" t="n">
         <v>203.7016723508711</v>
@@ -5445,10 +5445,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
         <v>1181.483761245743</v>
@@ -5460,28 +5460,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1625.435736377841</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.556289956296</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U16" t="n">
-        <v>1101.123289209401</v>
+        <v>1372.455669796499</v>
       </c>
       <c r="V16" t="n">
-        <v>814.1677810798319</v>
+        <v>1085.500161666929</v>
       </c>
       <c r="W16" t="n">
-        <v>542.1413766661235</v>
+        <v>813.4737572532208</v>
       </c>
       <c r="X16" t="n">
-        <v>542.1413766661235</v>
+        <v>568.0820025866333</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.1413766661235</v>
+        <v>568.0820025866333</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.36045797446834</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C17" t="n">
-        <v>34.36045797446834</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="D17" t="n">
-        <v>34.36045797446834</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="E17" t="n">
-        <v>34.36045797446834</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="F17" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G17" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5542,25 +5542,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V17" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W17" t="n">
-        <v>929.7110254252771</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X17" t="n">
-        <v>868.9461521597227</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y17" t="n">
-        <v>460.6600284593761</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5582,10 +5582,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
@@ -5600,19 +5600,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O18" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q18" t="n">
         <v>1580.010651986078</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>355.4061664716945</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C19" t="n">
-        <v>355.4061664716945</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D19" t="n">
-        <v>355.4061664716945</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E19" t="n">
-        <v>185.6481627224317</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
@@ -5679,16 +5679,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>688.8848573262783</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>1108.937756271182</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N19" t="n">
-        <v>1528.990655216085</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O19" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
         <v>1528.990655216085</v>
@@ -5703,22 +5703,22 @@
         <v>1537.942061378414</v>
       </c>
       <c r="T19" t="n">
-        <v>1292.062614956869</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U19" t="n">
-        <v>1292.062614956869</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V19" t="n">
-        <v>1292.062614956869</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.036210543161</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X19" t="n">
-        <v>774.6444558765734</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y19" t="n">
-        <v>547.2247851906816</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C20" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="D20" t="n">
-        <v>855.2769502042993</v>
+        <v>1581.337547761512</v>
       </c>
       <c r="E20" t="n">
-        <v>855.2769502042993</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="F20" t="n">
-        <v>724.4716545351282</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G20" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5755,19 +5755,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L20" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M20" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N20" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O20" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P20" t="n">
         <v>1107.976466382457</v>
@@ -5782,22 +5782,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5819,10 +5819,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.94366860160834</v>
+        <v>509.4818394589739</v>
       </c>
       <c r="C22" t="n">
-        <v>33.94366860160834</v>
+        <v>509.4818394589739</v>
       </c>
       <c r="D22" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="E22" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F22" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G22" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H22" t="n">
         <v>33.94366860160834</v>
@@ -5919,10 +5919,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
         <v>1181.483761245743</v>
@@ -5934,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V22" t="n">
-        <v>885.9154747824084</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W22" t="n">
-        <v>613.8890703687</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="X22" t="n">
-        <v>368.4973157021125</v>
+        <v>928.7201288638528</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.0776450162207</v>
+        <v>701.300458177961</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>724.4716545351282</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="C23" t="n">
-        <v>724.4716545351282</v>
+        <v>1184.949882001523</v>
       </c>
       <c r="D23" t="n">
-        <v>724.4716545351282</v>
+        <v>756.3682077387909</v>
       </c>
       <c r="E23" t="n">
-        <v>724.4716545351282</v>
+        <v>327.7865334760593</v>
       </c>
       <c r="F23" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
         <v>33.94366860160834</v>
@@ -5992,22 +5992,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L23" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="M23" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="N23" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="O23" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="P23" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q23" t="n">
         <v>1528.02936532736</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U23" t="n">
-        <v>1437.961127397434</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V23" t="n">
-        <v>1075.344177331261</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W23" t="n">
-        <v>724.4716545351282</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X23" t="n">
-        <v>724.4716545351282</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y23" t="n">
-        <v>724.4716545351282</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6074,16 +6074,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M24" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N24" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O24" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>286.0179953808982</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C25" t="n">
-        <v>262.5057921365585</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D25" t="n">
-        <v>262.5057921365585</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E25" t="n">
-        <v>262.5057921365585</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F25" t="n">
-        <v>262.5057921365585</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G25" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>269.215608100497</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>269.215608100497</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>689.2685070454004</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N25" t="n">
-        <v>1109.321405990304</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O25" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
         <v>1528.990655216085</v>
@@ -6171,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T25" t="n">
-        <v>1270.644793662241</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U25" t="n">
-        <v>992.2117929153466</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V25" t="n">
-        <v>705.2562847857771</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W25" t="n">
-        <v>705.2562847857771</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X25" t="n">
-        <v>705.2562847857771</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y25" t="n">
-        <v>477.8366140998854</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1033.105672808467</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C26" t="n">
-        <v>604.5239985457358</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D26" t="n">
-        <v>175.9423242830042</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E26" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F26" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G26" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I26" t="n">
         <v>33.94366860160834</v>
@@ -6241,10 +6241,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P26" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q26" t="n">
         <v>1528.02936532736</v>
@@ -6259,19 +6259,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W26" t="n">
-        <v>1033.105672808467</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X26" t="n">
-        <v>1033.105672808467</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y26" t="n">
-        <v>1033.105672808467</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6308,19 +6308,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.5617128800624</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C28" t="n">
-        <v>546.0000013632873</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D28" t="n">
-        <v>546.0000013632873</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E28" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F28" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G28" t="n">
         <v>33.94366860160834</v>
@@ -6387,19 +6387,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>120.5233537662982</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>540.5762527112014</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N28" t="n">
-        <v>960.6291516561047</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
         <v>1528.990655216085</v>
@@ -6408,28 +6408,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U28" t="n">
-        <v>1151.45316161735</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V28" t="n">
-        <v>864.4976534877803</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W28" t="n">
-        <v>864.4976534877803</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X28" t="n">
-        <v>864.4976534877803</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y28" t="n">
-        <v>864.4976534877803</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>866.0284050065428</v>
+        <v>725.9559027539632</v>
       </c>
       <c r="C29" t="n">
-        <v>866.0284050065428</v>
+        <v>297.3742284912315</v>
       </c>
       <c r="D29" t="n">
-        <v>462.9421322372</v>
+        <v>297.3742284912315</v>
       </c>
       <c r="E29" t="n">
-        <v>34.36045797446834</v>
+        <v>297.3742284912315</v>
       </c>
       <c r="F29" t="n">
-        <v>34.36045797446834</v>
+        <v>297.3742284912315</v>
       </c>
       <c r="G29" t="n">
         <v>34.36045797446834</v>
@@ -6466,19 +6466,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6490,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W29" t="n">
-        <v>1292.327975491451</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X29" t="n">
-        <v>1292.327975491451</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y29" t="n">
-        <v>1292.327975491451</v>
+        <v>725.9559027539632</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6560,7 +6560,7 @@
         <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q30" t="n">
         <v>1580.010651986078</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>199.8676094163139</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C31" t="n">
-        <v>199.8216614000857</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D31" t="n">
-        <v>33.94366860160834</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E31" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H31" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>452.1535503695694</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M31" t="n">
-        <v>452.1535503695694</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N31" t="n">
         <v>761.8145120199619</v>
@@ -6654,19 +6654,19 @@
         <v>1429.886162364244</v>
       </c>
       <c r="U31" t="n">
-        <v>1151.45316161735</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V31" t="n">
-        <v>864.4976534877803</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W31" t="n">
-        <v>864.4976534877803</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="X31" t="n">
-        <v>619.1058988211928</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.6862281353011</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>462.9421322372</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C32" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D32" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E32" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F32" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G32" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H32" t="n">
         <v>34.36045797446834</v>
@@ -6700,19 +6700,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K32" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L32" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M32" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N32" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O32" t="n">
         <v>687.9235674375537</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1075.344177331261</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>670.4887227422939</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="X32" t="n">
-        <v>670.4887227422939</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="Y32" t="n">
-        <v>462.9421322372</v>
+        <v>752.0722867939837</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O33" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P33" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q33" t="n">
         <v>1580.010651986078</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1113.00182921349</v>
+        <v>847.6348259499213</v>
       </c>
       <c r="C34" t="n">
-        <v>940.4401176967148</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="D34" t="n">
-        <v>774.5621248982375</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E34" t="n">
-        <v>604.8041211489747</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F34" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G34" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>308.7021231727439</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L34" t="n">
-        <v>726.9120049407049</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M34" t="n">
-        <v>1146.964903885608</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N34" t="n">
-        <v>1567.017802830512</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O34" t="n">
-        <v>1567.017802830512</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
@@ -6885,25 +6885,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T34" t="n">
-        <v>1304.820447932477</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U34" t="n">
-        <v>1304.820447932477</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.820447932477</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W34" t="n">
-        <v>1304.820447932477</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="X34" t="n">
-        <v>1304.820447932477</v>
+        <v>1184.494407697657</v>
       </c>
       <c r="Y34" t="n">
-        <v>1304.820447932477</v>
+        <v>1039.453444668908</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>503.4114549403693</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C35" t="n">
-        <v>503.4114549403693</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="D35" t="n">
-        <v>503.4114549403693</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="E35" t="n">
-        <v>503.4114549403693</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="F35" t="n">
-        <v>323.4906125312521</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="G35" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H35" t="n">
         <v>34.36045797446834</v>
@@ -6940,19 +6940,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O35" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
         <v>1107.976466382457</v>
@@ -6964,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V35" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W35" t="n">
-        <v>929.7110254252771</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X35" t="n">
-        <v>929.7110254252771</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y35" t="n">
-        <v>929.7110254252771</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7022,19 +7022,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M36" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O36" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P36" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q36" t="n">
         <v>1580.010651986078</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1024.341879988165</v>
+        <v>807.508379929692</v>
       </c>
       <c r="C37" t="n">
-        <v>851.7801684713901</v>
+        <v>634.9466684129169</v>
       </c>
       <c r="D37" t="n">
-        <v>685.9021756729128</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="E37" t="n">
-        <v>516.14417192365</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F37" t="n">
-        <v>339.4371178854062</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G37" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H37" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>89.90148899448771</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>509.954387939391</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N37" t="n">
-        <v>930.0072868842942</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O37" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1443.580169393044</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U37" t="n">
-        <v>1443.580169393044</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V37" t="n">
-        <v>1443.580169393044</v>
+        <v>1498.773073748279</v>
       </c>
       <c r="W37" t="n">
-        <v>1443.580169393044</v>
+        <v>1226.746669334571</v>
       </c>
       <c r="X37" t="n">
-        <v>1443.580169393044</v>
+        <v>1226.746669334571</v>
       </c>
       <c r="Y37" t="n">
-        <v>1216.160498707152</v>
+        <v>999.3269986486791</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>510.5685620045878</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C38" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E38" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F38" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G38" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7201,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1334.566480014244</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W38" t="n">
-        <v>929.7110254252771</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X38" t="n">
-        <v>510.5685620045878</v>
+        <v>715.0995630336205</v>
       </c>
       <c r="Y38" t="n">
-        <v>510.5685620045878</v>
+        <v>715.0995630336205</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7259,16 +7259,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>592.9589408290292</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C40" t="n">
-        <v>420.3972293122541</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D40" t="n">
-        <v>420.3972293122541</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E40" t="n">
-        <v>420.3972293122541</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F40" t="n">
-        <v>243.6901752740103</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G40" t="n">
-        <v>243.6901752740103</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H40" t="n">
-        <v>103.7880009643848</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>1146.964903885608</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N40" t="n">
-        <v>1567.017802830512</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O40" t="n">
-        <v>1567.017802830512</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1675.765608785789</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="U40" t="n">
-        <v>1397.332608038895</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="V40" t="n">
-        <v>1110.377099909325</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="W40" t="n">
-        <v>838.3506954956167</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="X40" t="n">
-        <v>592.9589408290292</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y40" t="n">
-        <v>592.9589408290292</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>813.0384456815061</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C41" t="n">
-        <v>435.7582893512044</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D41" t="n">
-        <v>435.7582893512044</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E41" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F41" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7414,19 +7414,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
         <v>1107.976466382457</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1477.116202953456</v>
+        <v>1569.471783230744</v>
       </c>
       <c r="U41" t="n">
-        <v>1217.893900270473</v>
+        <v>1310.249480547761</v>
       </c>
       <c r="V41" t="n">
-        <v>1217.893900270473</v>
+        <v>1310.249480547761</v>
       </c>
       <c r="W41" t="n">
-        <v>813.0384456815061</v>
+        <v>1310.249480547761</v>
       </c>
       <c r="X41" t="n">
-        <v>813.0384456815061</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y41" t="n">
-        <v>813.0384456815061</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7493,19 +7493,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>858.4638871896879</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C43" t="n">
-        <v>685.9021756729128</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D43" t="n">
-        <v>685.9021756729128</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E43" t="n">
-        <v>516.14417192365</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F43" t="n">
-        <v>339.4371178854062</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G43" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
         <v>33.94366860160834</v>
@@ -7569,19 +7569,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2818083374338</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M43" t="n">
-        <v>815.3347072823371</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N43" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7608,13 +7608,13 @@
         <v>1537.942061378414</v>
       </c>
       <c r="W43" t="n">
-        <v>1523.093931261154</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.702176594567</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.282505908675</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34.36045797446834</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="C44" t="n">
-        <v>34.36045797446834</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="D44" t="n">
-        <v>34.36045797446834</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="E44" t="n">
-        <v>34.36045797446834</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F44" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G44" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H44" t="n">
         <v>34.36045797446834</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V44" t="n">
-        <v>1075.344177331261</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="W44" t="n">
-        <v>670.4887227422939</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="X44" t="n">
-        <v>442.6465816748149</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.36045797446834</v>
+        <v>1179.939716384776</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7745,7 +7745,7 @@
         <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q45" t="n">
         <v>1580.010651986078</v>
@@ -7815,10 +7815,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O46" t="n">
         <v>1181.483761245743</v>
@@ -7836,22 +7836,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T46" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U46" t="n">
-        <v>1516.524240083786</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="V46" t="n">
-        <v>1516.524240083786</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="W46" t="n">
-        <v>1516.524240083786</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="X46" t="n">
-        <v>1516.524240083786</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="Y46" t="n">
-        <v>1304.820447932477</v>
+        <v>1113.00182921349</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,16 +8142,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>237.6484237362512</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8774,13 +8774,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -8926,14 +8926,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P15" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L15" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9248,22 +9248,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>358.9284720888814</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9327,19 +9327,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9403,7 +9403,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -9567,13 +9567,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9640,25 +9640,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L23" t="n">
+      <c r="Q23" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9722,19 +9722,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>237.6484237362512</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10035,22 +10035,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10114,10 +10114,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10348,14 +10348,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L32" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -10433,7 +10433,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q33" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>223.0854642319582</v>
       </c>
       <c r="P34" t="n">
-        <v>131.4804315655613</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>236.2898988798406</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -10670,7 +10670,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10989,19 +10989,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
-        <v>131.4804315655613</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -11141,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O43" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11463,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22552,7 +22552,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -22603,13 +22603,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.4636551275741</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>188.9746976505468</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -22725,7 +22725,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>202.8738421537941</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.5633111792702</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22795,10 +22795,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>82.0302981407886</v>
       </c>
       <c r="Y5" t="n">
-        <v>355.9333732892778</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -22953,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>53.54258966560252</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22995,13 +22995,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>176.4428262713995</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>419.9728021958107</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>18.62318932011459</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23178,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>112.2787855196517</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>193.1112634360527</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -23266,16 +23266,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>300.2636152907663</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>41.44368401948378</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>111.6424197813064</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>143.8772399241461</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>18.75328067360243</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>124.4069372095814</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>86.61873824943257</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>218.7924830973575</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,16 +23743,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>376.9068676604064</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>354.7938142535836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>24.75253431824621</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -23952,10 +23952,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>237.2929137874768</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,13 +23974,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>316.8632634815837</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>294.091512582405</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -24144,7 +24144,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.0810897089428</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>132.6843190691779</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>53.44310247490591</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>147.559013189711</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>11.01641148787616</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,10 +24451,10 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
-        <v>289.2709497478373</v>
+        <v>55.01010386435991</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -24463,7 +24463,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.42385133015648</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>68.8773468473951</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>32.49527693565051</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>137.0002202513732</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.7906058655413</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>101.330416691583</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>381.4496383448661</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>198.7321378633001</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>33.83389772753338</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -25140,10 +25140,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>81.55492058057169</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25165,13 +25165,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>245.4671213098583</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>91.7877383535419</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>150.002378891813</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>108.863343361139</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>171.988096812471</v>
       </c>
       <c r="C38" t="n">
-        <v>248.1412566306772</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25408,7 +25408,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>18.62746069392269</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>150.002378891813</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>60.2536933214123</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>174.2473795525166</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25848,10 +25848,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>254.6064915534841</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>11.01641148787616</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,13 +25876,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>147.6014139405199</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>189.3873191296782</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>119.5821359351618</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -26091,7 +26091,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.5587197492369</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>367105.2484333141</v>
+        <v>367105.2484333142</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>367105.2484333141</v>
+        <v>367105.2484333142</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367105.2484333142</v>
+        <v>367105.2484333143</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367105.2484333142</v>
+        <v>367105.2484333141</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367105.2484333141</v>
+        <v>367105.2484333142</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367105.2484333143</v>
+        <v>367105.2484333141</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367105.2484333141</v>
+        <v>367105.2484333142</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367105.2484333142</v>
+        <v>367105.2484333141</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367105.2484333141</v>
+        <v>367105.2484333142</v>
       </c>
     </row>
     <row r="16">
@@ -26322,22 +26322,22 @@
         <v>78131.51941534779</v>
       </c>
       <c r="E2" t="n">
-        <v>78131.51941534779</v>
+        <v>78131.51941534776</v>
       </c>
       <c r="F2" t="n">
-        <v>78131.51941534778</v>
+        <v>78131.51941534781</v>
       </c>
       <c r="G2" t="n">
         <v>78131.51941534778</v>
       </c>
       <c r="H2" t="n">
-        <v>78131.51941534776</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="I2" t="n">
-        <v>78131.51941534778</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="J2" t="n">
-        <v>78131.51941534778</v>
+        <v>78131.51941534779</v>
       </c>
       <c r="K2" t="n">
         <v>78131.51941534779</v>
@@ -26346,13 +26346,13 @@
         <v>78131.51941534778</v>
       </c>
       <c r="M2" t="n">
+        <v>78131.51941534778</v>
+      </c>
+      <c r="N2" t="n">
         <v>78131.51941534781</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>78131.51941534779</v>
-      </c>
-      <c r="O2" t="n">
-        <v>78131.51941534778</v>
       </c>
       <c r="P2" t="n">
         <v>78131.51941534779</v>
@@ -26420,7 +26420,7 @@
         <v>24896.51517712573</v>
       </c>
       <c r="C4" t="n">
-        <v>24896.51517712573</v>
+        <v>24896.51517712572</v>
       </c>
       <c r="D4" t="n">
         <v>24896.51517712573</v>
@@ -26429,7 +26429,7 @@
         <v>24896.51517712573</v>
       </c>
       <c r="F4" t="n">
-        <v>24896.51517712572</v>
+        <v>24896.51517712573</v>
       </c>
       <c r="G4" t="n">
         <v>24896.51517712573</v>
@@ -26450,7 +26450,7 @@
         <v>24896.51517712573</v>
       </c>
       <c r="M4" t="n">
-        <v>24896.51517712572</v>
+        <v>24896.51517712573</v>
       </c>
       <c r="N4" t="n">
         <v>24896.51517712573</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148381.0845587102</v>
+        <v>-149120.4411706259</v>
       </c>
       <c r="C6" t="n">
-        <v>-6189.783899000286</v>
+        <v>-6929.14051091594</v>
       </c>
       <c r="D6" t="n">
-        <v>-6189.783899000271</v>
+        <v>-6929.140510915925</v>
       </c>
       <c r="E6" t="n">
-        <v>27437.81610099973</v>
+        <v>26698.45948908405</v>
       </c>
       <c r="F6" t="n">
-        <v>27437.81610099971</v>
+        <v>26698.45948908408</v>
       </c>
       <c r="G6" t="n">
-        <v>27437.81610099971</v>
+        <v>26698.45948908406</v>
       </c>
       <c r="H6" t="n">
-        <v>27437.8161009997</v>
+        <v>26698.45948908407</v>
       </c>
       <c r="I6" t="n">
-        <v>27437.81610099971</v>
+        <v>26698.45948908407</v>
       </c>
       <c r="J6" t="n">
-        <v>-83576.64924399047</v>
+        <v>-84316.00585590611</v>
       </c>
       <c r="K6" t="n">
-        <v>27437.81610099972</v>
+        <v>26698.45948908407</v>
       </c>
       <c r="L6" t="n">
-        <v>27437.81610099971</v>
+        <v>26698.45948908405</v>
       </c>
       <c r="M6" t="n">
-        <v>27437.81610099974</v>
+        <v>26698.45948908405</v>
       </c>
       <c r="N6" t="n">
-        <v>27437.81610099973</v>
+        <v>26698.45948908409</v>
       </c>
       <c r="O6" t="n">
-        <v>27437.81610099971</v>
+        <v>26698.45948908407</v>
       </c>
       <c r="P6" t="n">
-        <v>27437.81610099973</v>
+        <v>26698.45948908407</v>
       </c>
     </row>
   </sheetData>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>237.6484237362512</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35646,14 +35646,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
@@ -35661,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P15" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L15" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35813,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -35968,22 +35968,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>358.9284720888814</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36047,19 +36047,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36123,7 +36123,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -36287,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -36360,25 +36360,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L23" t="n">
+      <c r="Q23" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36442,19 +36442,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>237.6484237362512</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36609,13 +36609,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36755,22 +36755,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821539</v>
@@ -36834,10 +36834,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -36928,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -37068,14 +37068,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L32" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
@@ -37083,7 +37083,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -37153,7 +37153,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q33" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>223.0854642319582</v>
       </c>
       <c r="P34" t="n">
-        <v>131.4804315655613</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>236.2898988798406</v>
@@ -37323,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
         <v>424.2958575201044</v>
@@ -37390,7 +37390,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37709,19 +37709,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
-        <v>131.4804315655613</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -37861,10 +37861,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O43" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38183,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
